--- a/output/2022/info.xlsx
+++ b/output/2022/info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H358"/>
+  <dimension ref="A1:H378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11010,10 +11010,8 @@
       <c r="H338" t="inlineStr"/>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>20220402</t>
-        </is>
+      <c r="A339" t="n">
+        <v>20220402</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -11031,10 +11029,8 @@
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F339" t="n">
+        <v>1</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -11048,10 +11044,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>20220402</t>
-        </is>
+      <c r="A340" t="n">
+        <v>20220402</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -11069,10 +11063,8 @@
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="F340" t="n">
+        <v>2</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -11086,10 +11078,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>20220402</t>
-        </is>
+      <c r="A341" t="n">
+        <v>20220402</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -11107,10 +11097,8 @@
         </is>
       </c>
       <c r="E341" t="inlineStr"/>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F341" t="n">
+        <v>1</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -11124,10 +11112,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>20220402</t>
-        </is>
+      <c r="A342" t="n">
+        <v>20220402</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -11145,19 +11131,15 @@
         </is>
       </c>
       <c r="E342" t="inlineStr"/>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F342" t="n">
+        <v>1</v>
       </c>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>20220403</t>
-        </is>
+      <c r="A343" t="n">
+        <v>20220403</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -11175,19 +11157,15 @@
         </is>
       </c>
       <c r="E343" t="inlineStr"/>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F343" t="n">
+        <v>1</v>
       </c>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>20220403</t>
-        </is>
+      <c r="A344" t="n">
+        <v>20220403</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -11205,19 +11183,15 @@
         </is>
       </c>
       <c r="E344" t="inlineStr"/>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F344" t="n">
+        <v>1</v>
       </c>
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A345" t="n">
+        <v>20220404</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -11235,10 +11209,8 @@
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F345" t="n">
+        <v>1</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -11252,10 +11224,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A346" t="n">
+        <v>20220404</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -11273,10 +11243,8 @@
         </is>
       </c>
       <c r="E346" t="inlineStr"/>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="F346" t="n">
+        <v>2</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -11290,10 +11258,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A347" t="n">
+        <v>20220404</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -11311,10 +11277,8 @@
         </is>
       </c>
       <c r="E347" t="inlineStr"/>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F347" t="n">
+        <v>1</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -11328,10 +11292,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A348" t="n">
+        <v>20220404</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -11349,19 +11311,15 @@
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F348" t="n">
+        <v>1</v>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A349" t="n">
+        <v>20220404</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -11379,10 +11337,8 @@
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F349" t="n">
+        <v>1</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -11396,10 +11352,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A350" t="n">
+        <v>20220404</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -11417,10 +11371,8 @@
         </is>
       </c>
       <c r="E350" t="inlineStr"/>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="F350" t="n">
+        <v>2</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -11434,10 +11386,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>20220404</t>
-        </is>
+      <c r="A351" t="n">
+        <v>20220404</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -11455,10 +11405,8 @@
         </is>
       </c>
       <c r="E351" t="inlineStr"/>
-      <c r="F351" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="F351" t="n">
+        <v>3</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -11472,10 +11420,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>20220405</t>
-        </is>
+      <c r="A352" t="n">
+        <v>20220405</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -11493,10 +11439,8 @@
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F352" t="n">
+        <v>1</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -11510,10 +11454,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>20220405</t>
-        </is>
+      <c r="A353" t="n">
+        <v>20220405</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -11531,19 +11473,15 @@
         </is>
       </c>
       <c r="E353" t="inlineStr"/>
-      <c r="F353" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F353" t="n">
+        <v>1</v>
       </c>
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>20220405</t>
-        </is>
+      <c r="A354" t="n">
+        <v>20220405</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -11561,153 +11499,839 @@
         </is>
       </c>
       <c r="E354" t="inlineStr"/>
-      <c r="F354" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="F354" t="n">
+        <v>1</v>
       </c>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
+      <c r="A355" t="n">
+        <v>20220406</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>《农业技术员的一天（经济新方位·春耕一线）》</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="n">
+        <v>1</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>数据来源：农业农村部</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>制图：汪哲平</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>20220406</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>《以茶致富  因茶兴业》</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="n">
+        <v>1</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>4月4日拍摄的蒋家坪村茶园。</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>20220406</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>《以茶致富  因茶兴业》</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="n">
+        <v>2</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>4月5日，太山庙村村民在采茶。</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>20220406</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>《户外踏青  亲近自然》</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="n">
+        <v>1</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>4月4日，浙江省金华市，孩子们在金东区大草坪上放风筝。</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>杨梅清摄（影像中国）</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>20220402</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>《习近平会见欧洲理事会主席米歇尔和欧盟委员会主席冯德莱恩》</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>4月1日晚，国家主席习近平在北京以视频方式会见欧洲理事会主席米歇尔和欧盟委员会主席冯德莱恩。</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新华社记者 黄敬文摄 </t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>20220402</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>《习近平会见欧洲理事会主席米歇尔和欧盟委员会主席冯德莱恩》</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>4月1日晚，国家主席习近平在北京以视频方式会见欧洲理事会主席米歇尔和欧盟委员会主席冯德莱恩。</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新华社记者 殷博古摄 </t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>20220402</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>《李克强同欧洲理事会主席米歇尔、欧盟委员会主席冯德莱恩共同主持第二十三次中国—欧盟领导人会晤时强调加强对话协调  深化务实合作维护和平安宁  稳定世界经济》</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>4月1日下午，国务院总理李克强在北京人民大会堂同欧洲理事会主席米歇尔、欧盟委员会主席冯德莱恩共同主持第二十三次中国—欧盟领导人会晤。会晤通过视频方式举行。</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">新华社记者 申 宏摄 </t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>20220402</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>20220403</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>《自3月1日试运行以来国家中小学智慧教育平台累计浏览量超7亿（新数据 新看点）》</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>20220403</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>4月3日，江西省九江市湖口县，群众在内湖湿地踏青。</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>张  玉摄（人民视觉）</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>第01版</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>第01版:要闻</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>4月3日，群众在福建省福州市金鸡山公园山地森林步道上漫步。</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>新华社记者  姜克红摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>《农资市场里的一天（经济新方位·春耕一线）》</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>数据来源：农业农村部、公安部等</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>制图：张丹峰</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>《宜宾临港公铁两用长江大桥钢箱梁吊装》</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>《铭记历史 追思英烈》</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>4月2日，在重庆市南岸区王朴故居，讲解员为重庆市广益中学的学生讲解红岩烈士的事迹。</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>新华社记者  黄  伟摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>《铭记历史 追思英烈》</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>4月3日，在江苏南京雨花台烈士陵园的江苏公安英烈纪念墙前，英烈子女献花悼念。</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>刘建华摄（影像中国）</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>20220404</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>《铭记历史 追思英烈》</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>4月2日，在贵州省赤水市红军烈士陵园，党员民警向红军烈士墓敬献鲜花。</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>王长育摄（影像中国）</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>20220405</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>第02版</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>第02版:要闻</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>《农机专业合作社的一天（经济新方位·春耕一线）》</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>数据来源：农业农村部</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>制图：张丹峰</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>20220405</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>第03版</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>第03版:要闻</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>20220405</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>《图片报道》</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
         <is>
           <t>20220406</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr">
+      <c r="B375" t="inlineStr">
         <is>
           <t>第02版</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="C375" t="inlineStr">
         <is>
           <t>第02版:要闻</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
+      <c r="D375" t="inlineStr">
         <is>
           <t>《农业技术员的一天（经济新方位·春耕一线）》</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr"/>
-      <c r="F355" t="inlineStr">
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
+      <c r="G375" t="inlineStr">
         <is>
           <t>数据来源：农业农村部</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
+      <c r="H375" t="inlineStr">
         <is>
           <t>制图：汪哲平</t>
         </is>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
+    <row r="376">
+      <c r="A376" t="inlineStr">
         <is>
           <t>20220406</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr">
+      <c r="B376" t="inlineStr">
         <is>
           <t>第02版</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C376" t="inlineStr">
         <is>
           <t>第02版:要闻</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
+      <c r="D376" t="inlineStr">
         <is>
           <t>《以茶致富  因茶兴业》</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr"/>
-      <c r="F356" t="inlineStr">
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
+      <c r="G376" t="inlineStr">
         <is>
           <t>4月4日拍摄的蒋家坪村茶园。</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
+      <c r="H376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
         <is>
           <t>20220406</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
+      <c r="B377" t="inlineStr">
         <is>
           <t>第02版</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="C377" t="inlineStr">
         <is>
           <t>第02版:要闻</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
+      <c r="D377" t="inlineStr">
         <is>
           <t>《以茶致富  因茶兴业》</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
-      <c r="F357" t="inlineStr">
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr">
+      <c r="G377" t="inlineStr">
         <is>
           <t>4月5日，太山庙村村民在采茶。</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
+      <c r="H377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
         <is>
           <t>20220406</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>第04版</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>第04版:要闻</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>第04版</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>第04版:要闻</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
         <is>
           <t>《户外踏青  亲近自然》</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr"/>
-      <c r="F358" t="inlineStr">
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
+      <c r="G378" t="inlineStr">
         <is>
           <t>4月4日，浙江省金华市，孩子们在金东区大草坪上放风筝。</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
+      <c r="H378" t="inlineStr">
         <is>
           <t>杨梅清摄（影像中国）</t>
         </is>
